--- a/КИЕВ_список целиком.xlsx
+++ b/КИЕВ_список целиком.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$1</definedName>
   </definedNames>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="206">
   <si>
     <t>Населений пункт</t>
   </si>
@@ -458,9 +453,6 @@
     <t>возле дрима</t>
   </si>
   <si>
-    <t>2,,5</t>
-  </si>
-  <si>
     <t>полусовок</t>
   </si>
   <si>
@@ -479,9 +471,6 @@
     <t>возле м. шевченка</t>
   </si>
   <si>
-    <t>2,,5</t>
-  </si>
-  <si>
     <t>кирпичный совок</t>
   </si>
   <si>
@@ -494,9 +483,6 @@
     <t>восток от теремков</t>
   </si>
   <si>
-    <t>3,,5</t>
-  </si>
-  <si>
     <t>не находит</t>
   </si>
   <si>
@@ -509,15 +495,9 @@
     <t>на победы, за вздф мост</t>
   </si>
   <si>
-    <t>2,,5</t>
-  </si>
-  <si>
     <t>неплохо</t>
   </si>
   <si>
-    <t>рядом с м. теремки</t>
-  </si>
-  <si>
     <t>полусовок</t>
   </si>
   <si>
@@ -527,9 +507,6 @@
     <t>за теремками</t>
   </si>
   <si>
-    <t>3,,5</t>
-  </si>
-  <si>
     <t>совок</t>
   </si>
   <si>
@@ -542,18 +519,12 @@
     <t>полкм от м. арсенальная</t>
   </si>
   <si>
-    <t>1,,5</t>
-  </si>
-  <si>
     <t>нормальное</t>
   </si>
   <si>
     <t>возле гетьмана</t>
   </si>
   <si>
-    <t>3,,5</t>
-  </si>
-  <si>
     <t>жилой дом?</t>
   </si>
   <si>
@@ -602,124 +573,111 @@
     <t>возле НАУ</t>
   </si>
   <si>
-    <t>3,,5</t>
-  </si>
-  <si>
     <t>полусовок</t>
   </si>
   <si>
     <t>1.5 км до м. Нивки</t>
   </si>
   <si>
-    <t>3,,5</t>
-  </si>
-  <si>
     <t>совок</t>
   </si>
   <si>
     <t>1км до дорогож</t>
   </si>
   <si>
+    <t>полусовок, нет на карте</t>
+  </si>
+  <si>
+    <t>глубь борщаги</t>
+  </si>
+  <si>
+    <t>совок, нет на карте</t>
+  </si>
+  <si>
+    <t>чоколовка</t>
+  </si>
+  <si>
+    <t>хорошее</t>
+  </si>
+  <si>
+    <t>1.3 км до шулявки</t>
+  </si>
+  <si>
+    <t>неплохое</t>
+  </si>
+  <si>
+    <t>рядом с м. черниговская</t>
+  </si>
+  <si>
     <t>полусовок</t>
   </si>
   <si>
-    <t>полусовок, нет на карте</t>
-  </si>
-  <si>
-    <t>глубь борщаги</t>
-  </si>
-  <si>
-    <t>совок, нет на карте</t>
-  </si>
-  <si>
-    <t>чоколовка</t>
-  </si>
-  <si>
-    <t>3,,5</t>
-  </si>
-  <si>
-    <t>хорошее</t>
-  </si>
-  <si>
-    <t>1.3 км до шулявки</t>
+    <t>возле ленинградки</t>
+  </si>
+  <si>
+    <t>кирпичный совок</t>
+  </si>
+  <si>
+    <t>700 м до левобережки</t>
   </si>
   <si>
     <t>неплохое</t>
   </si>
   <si>
-    <t>рядом с м. черниговская</t>
+    <t>начало Бориспольской</t>
+  </si>
+  <si>
+    <t>совок</t>
+  </si>
+  <si>
+    <t>березняки</t>
   </si>
   <si>
     <t>полусовок</t>
   </si>
   <si>
-    <t>возле ленинградки</t>
-  </si>
-  <si>
-    <t>3,,5</t>
-  </si>
-  <si>
-    <t>кирпичный совок</t>
-  </si>
-  <si>
-    <t>700 м до левобережки</t>
-  </si>
-  <si>
-    <t>2,,5</t>
-  </si>
-  <si>
-    <t>неплохое</t>
-  </si>
-  <si>
-    <t>начало Бориспольской</t>
-  </si>
-  <si>
-    <t>4,,5</t>
-  </si>
-  <si>
-    <t>совок</t>
-  </si>
-  <si>
-    <t>березняки</t>
-  </si>
-  <si>
-    <t>3,,5</t>
-  </si>
-  <si>
-    <t>полусовок</t>
-  </si>
-  <si>
-    <t>2,,5</t>
+    <t>Статус (уточнение)</t>
+  </si>
+  <si>
+    <t>Свободно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="16" formatCode="[$-419]dd\.mmm"/>
-    <numFmt numFmtId="49" formatCode="@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -750,42 +708,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -832,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,7 +826,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,28 +1005,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H25" zoomScale="67">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="8.425781" style="0"/>
-    <col min="2" max="2" customWidth="1" width="17.285156" style="0"/>
-    <col min="3" max="3" customWidth="1" width="22.570313" style="0"/>
-    <col min="4" max="4" customWidth="1" width="7.7109375" style="0"/>
-    <col min="5" max="5" customWidth="1" width="49.710938" style="0"/>
-    <col min="6" max="6" customWidth="1" width="14.285156" style="0"/>
-    <col min="7" max="7" customWidth="1" width="24.710938" style="0"/>
-    <col min="10" max="10" customWidth="1" width="20.675781" style="0"/>
-    <col min="12" max="12" customWidth="1" width="15.136719" style="0"/>
-    <col min="257" max="16384" width="9" style="0" hidden="0"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="44.15">
+    <row r="1" spans="1:13" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,262 +1060,286 @@
       <c r="J1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>121</v>
       </c>
       <c r="L1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="8:8">
+      <c r="M1" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>0.447354</v>
+        <v>0.20996400000000001</v>
       </c>
       <c r="G2">
-        <v>5488.2</v>
+        <v>8348.6</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2">
-        <v>3.0</v>
+        <v>162</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8">
+        <v>163</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="3">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>0.491216</v>
+        <v>8.4007999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>4985.0</v>
+        <v>3008.7</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="I3">
+        <v>2021</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3">
-        <v>4.0</v>
+        <v>168</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8">
+        <v>169</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>0.288515</v>
+        <v>0.31080000000000002</v>
       </c>
       <c r="G4">
-        <v>2991.3</v>
+        <v>4839.6000000000004</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>2021</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4">
-        <v>4.0</v>
+        <v>170</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
+        <v>171</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>0.559223</v>
+        <v>0.20371800000000001</v>
       </c>
       <c r="G5">
-        <v>5669.2</v>
+        <v>5596.1</v>
       </c>
       <c r="H5" t="s">
         <v>116</v>
       </c>
       <c r="I5">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
+        <v>174</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>0.494205</v>
+        <v>0.29085800000000001</v>
       </c>
       <c r="G6">
-        <v>3576.8</v>
+        <v>6232.9</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="I6">
+        <v>2027</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6">
-        <v>5.0</v>
+        <v>164</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.5</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8">
+        <v>165</v>
+      </c>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>0.672575</v>
+        <v>9.6367999999999995E-2</v>
       </c>
       <c r="G7">
-        <v>4998.7</v>
+        <v>905.2</v>
       </c>
       <c r="H7" t="s">
         <v>116</v>
       </c>
       <c r="I7">
-        <v>2029.0</v>
+        <v>2026</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7">
-        <v>4.0</v>
+        <v>144</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8">
+        <v>145</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>0.396169</v>
+        <v>0.21310200000000001</v>
       </c>
       <c r="G8">
-        <v>4917.0</v>
+        <v>2149.4</v>
       </c>
       <c r="H8" t="s">
         <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8">
-        <v>3.0</v>
+        <v>172</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
+        <v>173</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1361,317 +1347,330 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3.0</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.6923</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="G9">
-        <v>5175.8</v>
+        <v>9810.1</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9">
-        <v>3.0</v>
+        <v>142</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2.5</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
+        <v>143</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>0.439242</v>
+        <v>0.236126</v>
       </c>
       <c r="G10">
-        <v>4936.2</v>
+        <v>2791.2</v>
       </c>
       <c r="H10" t="s">
         <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10">
-        <v>3.0</v>
+        <v>148</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.5</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
+        <v>149</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3">
-        <v>18.0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>0.217</v>
+        <v>0.28920000000000001</v>
       </c>
       <c r="G11">
-        <v>1166.4</v>
+        <v>2590.6999999999998</v>
       </c>
       <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12">
+        <v>0.35609299999999999</v>
+      </c>
+      <c r="G12">
+        <v>3804.6</v>
+      </c>
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11">
-        <v>5.0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8" ht="15.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
-        <v>0.6695</v>
-      </c>
-      <c r="G12">
-        <v>9810.1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>119</v>
-      </c>
       <c r="J12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.5</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>0.096368</v>
+        <v>0.44735399999999997</v>
       </c>
       <c r="G13">
-        <v>905.2</v>
+        <v>5488.2</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13">
-        <v>2026.0</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13">
-        <v>2.0</v>
+        <v>123</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>0.429173</v>
+        <v>0.39616899999999999</v>
       </c>
       <c r="G14">
-        <v>4850.9</v>
+        <v>4917</v>
       </c>
       <c r="H14" t="s">
         <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14">
-        <v>4.0</v>
+        <v>134</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>0.236126</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="G15">
-        <v>2791.2</v>
+        <v>5175.8</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
+        <v>137</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.5217</v>
+        <v>0.43924200000000002</v>
       </c>
       <c r="G16">
-        <v>5797.3</v>
+        <v>4936.2</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16">
-        <v>3.0</v>
+        <v>138</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.978044</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2012.6</v>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="G17">
+        <v>5797.3</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
+        <v>151</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1682,51 +1681,51 @@
         <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F18">
-        <v>0.772245</v>
+        <v>0.77224499999999996</v>
       </c>
       <c r="G18">
-        <v>8828.7</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="H18" t="s">
         <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18">
-        <v>3.0</v>
+        <v>154</v>
+      </c>
+      <c r="K18" s="9">
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
       </c>
       <c r="F19">
-        <v>0.2892</v>
+        <v>0.3115</v>
       </c>
       <c r="G19">
-        <v>2590.7</v>
+        <v>3437.8</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
@@ -1734,303 +1733,309 @@
       <c r="J19" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
-        <v>160</v>
+      <c r="K19" s="9">
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
+        <v>158</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="D20" s="3">
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>0.3115</v>
+        <v>0.47160099999999999</v>
       </c>
       <c r="G20">
-        <v>3437.8</v>
+        <v>5618.6</v>
       </c>
       <c r="H20" t="s">
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20">
-        <v>3.0</v>
+        <v>176</v>
+      </c>
+      <c r="K20" s="9">
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8">
+        <v>177</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3">
-        <v>38.0</v>
+        <v>95</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>0.224173</v>
+        <v>0.34715200000000002</v>
       </c>
       <c r="G21">
-        <v>2817.1</v>
+        <v>2130.8000000000002</v>
       </c>
       <c r="H21" t="s">
         <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
+        <v>186</v>
+      </c>
+      <c r="K21" s="9">
+        <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
+        <v>187</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3">
-        <v>40.0</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F22">
-        <v>0.209964</v>
+        <v>0.2097</v>
       </c>
       <c r="G22">
-        <v>8348.6</v>
+        <v>3437.4</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22">
-        <v>1.0</v>
+        <v>192</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
+        <v>193</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="3">
-        <v>23.0</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F23">
-        <v>0.290858</v>
+        <v>0.79722300000000001</v>
       </c>
       <c r="G23">
-        <v>6232.9</v>
+        <v>3816.7</v>
       </c>
       <c r="H23" t="s">
         <v>116</v>
       </c>
       <c r="I23">
-        <v>2027.0</v>
+        <v>2022</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" t="s">
-        <v>171</v>
+        <v>194</v>
+      </c>
+      <c r="K23" s="9">
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.97804400000000002</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2012.6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>0.22417300000000001</v>
+      </c>
+      <c r="G25">
+        <v>2817.1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>74</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>0.230264</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>3473.7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>119</v>
       </c>
-      <c r="J24" t="s">
-        <v>173</v>
-      </c>
-      <c r="K24" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25">
-        <v>0.084008</v>
-      </c>
-      <c r="G25">
-        <v>3008.7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25">
-        <v>2021.0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>176</v>
-      </c>
-      <c r="K25">
-        <v>1.0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26">
-        <v>0.3108</v>
-      </c>
-      <c r="G26">
-        <v>4839.6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26">
-        <v>2021.0</v>
-      </c>
       <c r="J26" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26">
-        <v>1.0</v>
+        <v>166</v>
+      </c>
+      <c r="K26" s="9">
+        <v>3.5</v>
       </c>
       <c r="L26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3">
-        <v>7.0</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>0.213102</v>
+        <v>0.44997599999999999</v>
       </c>
       <c r="G27">
-        <v>2149.4</v>
+        <v>5658.3</v>
       </c>
       <c r="H27" t="s">
         <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27">
-        <v>2.0</v>
+        <v>182</v>
+      </c>
+      <c r="K27" s="9">
+        <v>3.5</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2038,533 +2043,533 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F28">
-        <v>0.203718</v>
+        <v>0.64687600000000001</v>
       </c>
       <c r="G28">
-        <v>5596.1</v>
+        <v>7171.3</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28">
-        <v>2024.0</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28">
-        <v>1.0</v>
+        <v>184</v>
+      </c>
+      <c r="K28" s="9">
+        <v>3.5</v>
       </c>
       <c r="L28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3">
-        <v>27.0</v>
+        <v>101</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F29">
-        <v>0.471601</v>
+        <v>0.97485699999999997</v>
       </c>
       <c r="G29">
-        <v>5618.6</v>
+        <v>7877.6</v>
       </c>
       <c r="H29" t="s">
         <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K29">
-        <v>3.0</v>
+        <v>190</v>
+      </c>
+      <c r="K29" s="9">
+        <v>3.5</v>
       </c>
       <c r="L29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.0</v>
+        <v>108</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F30">
-        <v>0.512099</v>
+        <v>0.52064999999999995</v>
       </c>
       <c r="G30">
-        <v>5047.2</v>
+        <v>7020.7</v>
       </c>
       <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9.6381999999999995E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1672.3</v>
+      </c>
+      <c r="H31" t="s">
         <v>119</v>
       </c>
-      <c r="J30" t="s">
-        <v>186</v>
-      </c>
-      <c r="K30">
-        <v>4.0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31">
-        <v>0.43965</v>
-      </c>
-      <c r="G31">
-        <v>5568.6</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>0.49121599999999999</v>
+      </c>
+      <c r="G32">
+        <v>4985</v>
+      </c>
+      <c r="H32" t="s">
         <v>118</v>
       </c>
-      <c r="J31" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31">
-        <v>4.0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32">
-        <v>0.449976</v>
-      </c>
-      <c r="G32">
-        <v>5658.3</v>
-      </c>
-      <c r="H32" t="s">
-        <v>119</v>
-      </c>
       <c r="J32" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" t="s">
-        <v>191</v>
+        <v>125</v>
+      </c>
+      <c r="K32" s="9">
+        <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>0.646876</v>
+        <v>0.28851500000000002</v>
       </c>
       <c r="G33">
-        <v>7171.3</v>
+        <v>2991.3</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" t="s">
-        <v>194</v>
+        <v>127</v>
+      </c>
+      <c r="K33" s="9">
+        <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>0.347152</v>
+        <v>0.55922300000000003</v>
       </c>
       <c r="G34">
-        <v>2130.8</v>
+        <v>5669.2</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="I34">
+        <v>2024</v>
       </c>
       <c r="J34" t="s">
-        <v>196</v>
-      </c>
-      <c r="K34">
-        <v>3.0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
+        <v>129</v>
+      </c>
+      <c r="K34" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>0.222</v>
+        <v>0.67257500000000003</v>
       </c>
       <c r="G35">
-        <v>2354.5</v>
+        <v>4998.7</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="I35">
+        <v>2029</v>
       </c>
       <c r="J35" t="s">
-        <v>199</v>
-      </c>
-      <c r="K35">
-        <v>4.0</v>
+        <v>132</v>
+      </c>
+      <c r="K35" s="9">
+        <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F36">
-        <v>0.974857</v>
+        <v>0.42917300000000003</v>
       </c>
       <c r="G36">
-        <v>7877.6</v>
+        <v>4850.8999999999996</v>
       </c>
       <c r="H36" t="s">
         <v>119</v>
       </c>
       <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" s="9">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37">
+        <v>0.51209899999999997</v>
+      </c>
+      <c r="G37">
+        <v>5047.2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="9">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38">
+        <v>0.43964999999999999</v>
+      </c>
+      <c r="G38">
+        <v>5568.6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="9">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>0.222</v>
+      </c>
+      <c r="G39">
+        <v>2354.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="9">
+        <v>4</v>
+      </c>
+      <c r="L39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="3">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <v>0.24579500000000001</v>
+      </c>
+      <c r="G40">
+        <v>2047.1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="L40" t="s">
         <v>201</v>
       </c>
-      <c r="K36" t="s">
-        <v>202</v>
-      </c>
-      <c r="L36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37">
-        <v>0.2097</v>
-      </c>
-      <c r="G37">
-        <v>3437.4</v>
-      </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <v>0.49420500000000001</v>
+      </c>
+      <c r="G41">
+        <v>3576.8</v>
+      </c>
+      <c r="H41" t="s">
         <v>118</v>
       </c>
-      <c r="J37" t="s">
-        <v>204</v>
-      </c>
-      <c r="K37">
-        <v>3.0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38">
-        <v>0.797223</v>
-      </c>
-      <c r="G38">
-        <v>3816.7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38">
-        <v>2022.0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38">
-        <v>3.0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39">
-        <v>0.52065</v>
-      </c>
-      <c r="G39">
-        <v>7020.7</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="9">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>18</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>0.217</v>
+      </c>
+      <c r="G42">
+        <v>1166.4000000000001</v>
+      </c>
+      <c r="H42" t="s">
         <v>118</v>
       </c>
-      <c r="J39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40">
-        <v>0.356093</v>
-      </c>
-      <c r="G40">
-        <v>3804.6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41">
-        <v>0.245795</v>
-      </c>
-      <c r="G41">
-        <v>2047.1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" t="s">
-        <v>215</v>
-      </c>
-      <c r="L41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="8:8">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0.096382</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1672.3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>119</v>
-      </c>
       <c r="J42" t="s">
-        <v>217</v>
-      </c>
-      <c r="K42" t="s">
-        <v>218</v>
+        <v>140</v>
+      </c>
+      <c r="K42" s="9">
+        <v>5</v>
       </c>
       <c r="L42" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I42">
-    <filterColumn colId="0" showButton="1"/>
+  <autoFilter ref="A1:L1">
+    <sortState ref="A2:L42">
+      <sortCondition ref="K1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>